--- a/biology/Botanique/Ancistrocladus/Ancistrocladus.xlsx
+++ b/biology/Botanique/Ancistrocladus/Ancistrocladus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrocladus est un genre de plantes de la famille des Ancistrocladaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (25 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (25 juillet 2017) :
 Ancistrocladus abbreviatus Airy Shaw
 Ancistrocladus attenuatus Dyer
 Ancistrocladus barteri Scott-Elliot
@@ -561,7 +577,7 @@
 Ancistrocladus tectorius (Loureiro) Merrill
 Ancistrocladus uncinatus Hutch. &amp; Dalziel
 Ancistrocladus wallichii Planch.
-Selon Catalogue of Life                                   (25 juillet 2017)[3] :
+Selon Catalogue of Life                                   (25 juillet 2017) :
 Ancistrocladus abbreviatus Airy Shaw
 Ancistrocladus attenuatus Dyer
 Ancistrocladus barteri S. Elliot
@@ -581,9 +597,9 @@
 Ancistrocladus tanzaniensis M. R. Cheek &amp; C. Frimodt-Müller
 Ancistrocladus tectorius Merrill
 Ancistrocladus wallichii Planch.
-Selon GRIN            (25 juillet 2017)[4] :
+Selon GRIN            (25 juillet 2017) :
 Ancistrocladus tectorius (Lour.) Merr.
-Selon World Checklist of Selected Plant Families (WCSP)  (25 juillet 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (25 juillet 2017) :
 Ancistrocladus abbreviatus Airy Shaw (1949)
 sous-espèce Ancistrocladus abbreviatus subsp. abbreviatus
 sous-espèce Ancistrocladus abbreviatus subsp. lateralis Gereau (2005)
@@ -607,7 +623,7 @@
 Ancistrocladus tectorius (Lour.) Merr. (1928 publ. 1930)
 Ancistrocladus uncinatus Hutch. &amp; Dalziel (1927)
 Ancistrocladus wallichii Planch., Ann. Sci. Nat., Bot., sér. 3 (1849)
-Selon NCBI  (25 juillet 2017)[6] :
+Selon NCBI  (25 juillet 2017) :
 Ancistrocladus abbreviatus
 Ancistrocladus attenuatus
 Ancistrocladus barteri
@@ -629,7 +645,7 @@
 Ancistrocladus robertsoniorum
 Ancistrocladus tanzaniensis
 Ancistrocladus tectorius
-Selon The Plant List            (25 juillet 2017)[7] :
+Selon The Plant List            (25 juillet 2017) :
 Ancistrocladus abbreviatus Airy Shaw
 Ancistrocladus attenuatus Dyer
 Ancistrocladus barteri Scott-Elliot
@@ -651,7 +667,7 @@
 Ancistrocladus tectorius (Lour.) Merr.
 Ancistrocladus uncinatus Hutch. &amp; Dalziel
 Ancistrocladus wallichii Planch.
-Selon Tropicos                                           (25 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Ancistrocladus abbreviatus Airy Shaw
 Ancistrocladus attenuatus Dyer
 Ancistrocladus barteri Scott-Elliot
